--- a/biology/Médecine/Veterinary_Dermatology/Veterinary_Dermatology.xlsx
+++ b/biology/Médecine/Veterinary_Dermatology/Veterinary_Dermatology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Veterinary Dermatology, en abrégé Vet. Dermatol., est une revue scientifique publiée par Wiley-Blackwell. La revue est un organe de publication officiel des sociétés suivantes :
@@ -494,8 +506,8 @@
 International Society of Veterinary Dermatopathology
 World Association for Veterinary Dermatology
 International Committee on Allergic Diseases of Animals
-La revue paraît six fois par an et publie des travaux consacrés aux maladies de la peau des mammifères, des oiseaux, des reptiles, des amphibiens et des poissons [1]
-Le facteur d’impact était de 1,732 en 2014. Selon les statistiques de l'ISI Web of Knowledge, ce facteur d'impact place la revue en 25e position sur 62 revues dans la catégorie dermatologie et en 24e position sur 133 revues dans la catégorie médecine vétérinaire [2].
+La revue paraît six fois par an et publie des travaux consacrés aux maladies de la peau des mammifères, des oiseaux, des reptiles, des amphibiens et des poissons 
+Le facteur d’impact était de 1,732 en 2014. Selon les statistiques de l'ISI Web of Knowledge, ce facteur d'impact place la revue en 25e position sur 62 revues dans la catégorie dermatologie et en 24e position sur 133 revues dans la catégorie médecine vétérinaire .
 </t>
         </is>
       </c>
